--- a/2233.xlsx
+++ b/2233.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,83 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>李爱明</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-06-15 10:18:18</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>62248</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>70.7</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>45678</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>70.8</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
